--- a/results/CNN_2layers_adaptive_maxpool=3/cm_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/CNN_2layers_adaptive_maxpool=3/cm_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_maxpool=3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B20633-4AE0-4EE4-BAD1-0D20A2D31257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1372E08-DA96-4703-809C-A745D41ED620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/CNN_2layers_adaptive_maxpool=3/cm_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/CNN_2layers_adaptive_maxpool=3/cm_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\results\CNN_2layers_adaptive_maxpool=3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1372E08-DA96-4703-809C-A745D41ED620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163005B-621C-4E32-AB1E-33B5E67EAC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Identifier</t>
   </si>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>sub15ex3</t>
+  </si>
+  <si>
+    <t>avg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1103,7 +1107,7 @@
         <v>0.90671122914429036</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>0.90958110854670815</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1137,7 +1141,7 @@
         <v>0.94237846626950428</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1154,7 +1158,7 @@
         <v>0.86671416377162402</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>0.79602639262269803</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>0.92495914965179382</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>0.84066397043364849</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1222,7 +1226,7 @@
         <v>0.88010173554180271</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>0.8873942419094053</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1256,7 +1260,7 @@
         <v>0.80883642679615486</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>0.76493412241321768</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>0.75541036784526727</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>0.95518958691957589</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>0.97288866206495117</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1340,9 +1344,18 @@
       <c r="E46">
         <v>0.94191848327897121</v>
       </c>
-      <c r="F46">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
         <f>AVERAGE(B2:B46)</f>
         <v>86.056434552009776</v>
+      </c>
+      <c r="E47">
+        <f>AVERAGE(E2:E46)</f>
+        <v>0.85672175939396789</v>
       </c>
     </row>
   </sheetData>
